--- a/Tools/Vue.xlsx
+++ b/Tools/Vue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\document\Vue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zxz\test\StudentTest\Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280E8AFC-E114-44B7-8799-78D761C0516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD08C3-634E-4C1A-B35D-DA9FF9E11644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3030" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="4050" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vue" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>安装cnpm  用于国内下载</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>项目文件夹下 package.json 为该项目依赖包  进入文件目录后执行 npm install 会自动下载需要的依赖</t>
+  </si>
+  <si>
+    <t>vue-admin-template   登陆  admin 111111</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +559,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
